--- a/autolysis/metadata-template.xlsx
+++ b/autolysis/metadata-template.xlsx
@@ -19,52 +19,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t># ['name']</t>
-  </si>
-  <si>
-    <t># ['source']</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
-    <t>Column Type</t>
-  </si>
-  <si>
     <t>Missing</t>
   </si>
   <si>
-    <t>No. of unique values</t>
-  </si>
-  <si>
-    <t># ['columns'][*]['name']</t>
-  </si>
-  <si>
-    <t># ['columns'][*]['type_pandas']</t>
-  </si>
-  <si>
-    <t># ['columns'][*]['missing']</t>
-  </si>
-  <si>
-    <t># ['columns'][*]['nunique']</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Number of rows</t>
+  </si>
+  <si>
+    <t>Each row is</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>#['name']</t>
+  </si>
+  <si>
+    <t>#['source']</t>
+  </si>
+  <si>
+    <t>#['format']</t>
+  </si>
+  <si>
+    <t>#['rows']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['name']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['type_pandas']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['missing']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['nunique']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['mean']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['50%']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['std']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['min']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['max']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['25%']</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['moments']['75%']</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>(to be filled by you)</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>#['columns'][*]['top']</t>
+  </si>
+  <si>
+    <t>Uniques</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Prepared on</t>
+  </si>
+  <si>
+    <t>Sampling method</t>
+  </si>
+  <si>
+    <t>(describe what filters were applied to create this dataset)</t>
+  </si>
+  <si>
+    <t>(date on which the dataset was extracted, or when this metadata was prepared)</t>
+  </si>
+  <si>
+    <t>(describe what each row represents, e.g. an employee, a transaction, etc)</t>
+  </si>
+  <si>
+    <t>Key?</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,14 +189,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,56 +522,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
